--- a/KMC/docs/help.xlsx
+++ b/KMC/docs/help.xlsx
@@ -862,7 +862,7 @@
     <t>settingupsyndication.htm</t>
   </si>
   <si>
-    <t>kmcpublishertasksfor.htm</t>
+    <t>bmcpublishertasksfor.htm</t>
   </si>
   <si>
     <t>addingmetadatatoacat.htm</t>
@@ -889,7 +889,7 @@
     <t>editingandcreatingtr.htm</t>
   </si>
   <si>
-    <t>kalturacustommetadat.htm</t>
+    <t>borhancustommetadat.htm</t>
   </si>
   <si>
     <t>addingaschema.htm</t>
@@ -1162,7 +1162,7 @@
     <t>embedcodetypes.htm</t>
   </si>
   <si>
-    <t>thekalturauploader.htm</t>
+    <t>theborhanuploader.htm</t>
   </si>
   <si>
     <t>new live stream (rtmp)</t>
@@ -1269,13 +1269,13 @@
     <t>Categories.mxml</t>
   </si>
   <si>
-    <t>new live stream (kaltura)</t>
+    <t>new live stream (borhan)</t>
   </si>
   <si>
     <t>section_add_live_stream_kal</t>
   </si>
   <si>
-    <t>new live stream (kaltura multicast)</t>
+    <t>new live stream (borhan multicast)</t>
   </si>
   <si>
     <t>section_add_live_stream_mul</t>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;item key="section_ExternalSyndicationNotification" anchor="kmcpublishertasksfor.htm" /&gt;</v>
+        <v>&lt;item key="section_ExternalSyndicationNotification" anchor="bmcpublishertasksfor.htm" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:16384">
@@ -17540,14 +17540,14 @@
       <c r="KAD48" t="s">
         <v>373</v>
       </c>
-      <c r="KAE48" s="5" t="s">
+      <c r="BAE48" s="5" t="s">
         <v>374</v>
       </c>
       <c r="KAF48" s="8" t="s">
         <v>375</v>
       </c>
       <c r="KAJ48" t="str">
-        <f t="shared" ref="KAJ48" si="933">CONCATENATE("&lt;item key=""",KAE48,""" anchor=""",KAD48,""" /&gt;")</f>
+        <f t="shared" ref="KAJ48" si="933">CONCATENATE("&lt;item key=""",BAE48,""" anchor=""",KAD48,""" /&gt;")</f>
         <v>&lt;item key="freetext_entries" anchor="searchingthroughentr.htm" /&gt;</v>
       </c>
       <c r="KAK48" s="5" t="s">
@@ -17665,7 +17665,7 @@
       <c r="KCO48" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="KCP48" t="s">
+      <c r="BCP48" t="s">
         <v>373</v>
       </c>
       <c r="KCQ48" s="5" t="s">
@@ -17675,10 +17675,10 @@
         <v>375</v>
       </c>
       <c r="KCV48" t="str">
-        <f t="shared" ref="KCV48" si="941">CONCATENATE("&lt;item key=""",KCQ48,""" anchor=""",KCP48,""" /&gt;")</f>
-        <v>&lt;item key="freetext_entries" anchor="searchingthroughentr.htm" /&gt;</v>
-      </c>
-      <c r="KCW48" s="5" t="s">
+        <f t="shared" ref="KCV48" si="941">CONCATENATE("&lt;item key=""",KCQ48,""" anchor=""",BCP48,""" /&gt;")</f>
+        <v>&lt;item key="freetext_entries" anchor="searchingthroughentr.htm" /&gt;</v>
+      </c>
+      <c r="BCW48" s="5" t="s">
         <v>376</v>
       </c>
       <c r="KCX48" t="s">
@@ -17719,7 +17719,7 @@
       <c r="KDO48" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="KDP48" s="8" t="s">
+      <c r="BDP48" s="8" t="s">
         <v>375</v>
       </c>
       <c r="KDT48" t="str">
@@ -18158,7 +18158,7 @@
         <f t="shared" ref="KMB48" si="971">CONCATENATE("&lt;item key=""",KLW48,""" anchor=""",KLV48,""" /&gt;")</f>
         <v>&lt;item key="freetext_entries" anchor="searchingthroughentr.htm" /&gt;</v>
       </c>
-      <c r="KMC48" s="5" t="s">
+      <c r="BMC48" s="5" t="s">
         <v>376</v>
       </c>
       <c r="KMD48" t="s">
@@ -36014,7 +36014,7 @@
       </c>
       <c r="H87" t="str">
         <f t="shared" si="2049"/>
-        <v>&lt;item key="" anchor="kalturacustommetadat.htm" /&gt;</v>
+        <v>&lt;item key="" anchor="borhancustommetadat.htm" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -36614,7 +36614,7 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" si="2050"/>
-        <v>&lt;item key="section_upload_menu" anchor="thekalturauploader.htm" /&gt;</v>
+        <v>&lt;item key="section_upload_menu" anchor="theborhanuploader.htm" /&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:8">
